--- a/biology/Zoologie/Antirrhea_geryon/Antirrhea_geryon.xlsx
+++ b/biology/Zoologie/Antirrhea_geryon/Antirrhea_geryon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhea geryon est une espèce de lépidoptère de la famille des Nymphalidés et du genre Antirrhea.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Antirrhea geryon a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1862[1].
-Sous-espèces
-Antirrhea geryon geryon présent en Colombie.
-Antirrhea geryon geryonides Weymer, 1909 ; présent en Équateur
-Antirrhea geryon weymeri Salazar, Constantino &amp; López, 1998 ; présent en Colombie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea geryon a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1862.
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antirrhea geryon est un grand papillon aux ailes antérieures à bord externe concave et apex pointu, aux ailes postérieurs en pointe formant une courte queue. Le dessus est marron avec une ligne submarginale de quelques points blancs.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antirrhea geryon geryon présent en Colombie.
+Antirrhea geryon geryonides Weymer, 1909 ; présent en Équateur
+Antirrhea geryon weymeri Salazar, Constantino &amp; López, 1998 ; présent en Colombie.</t>
         </is>
       </c>
     </row>
@@ -573,13 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est Prestoea acuminata[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea geryon est un grand papillon aux ailes antérieures à bord externe concave et apex pointu, aux ailes postérieurs en pointe formant une courte queue. Le dessus est marron avec une ligne submarginale de quelques points blancs.
 </t>
         </is>
       </c>
@@ -605,16 +624,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Prestoea acuminata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antirrhea_geryon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_geryon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antirrheaen  geryon est présent en Colombie et en Équateur[1].
-Biotope
-Il réside dans les montagnes en Colombie.
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrheaen  geryon est présent en Colombie et en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antirrhea_geryon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_geryon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les montagnes en Colombie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antirrhea_geryon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_geryon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Antirrhea geryon, sur Wikimedia CommonsAntirrhea geryon, sur Wikispecies
 </t>
